--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmjamil\Downloads\IMT-HUB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C933CE56-EA37-41C0-B6CD-9809BC6498F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="772"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="3" r:id="rId1"/>
-    <sheet name="Countries" sheetId="1" r:id="rId2"/>
-    <sheet name="Cities" sheetId="2" r:id="rId3"/>
-    <sheet name="Banks" sheetId="4" r:id="rId4"/>
-    <sheet name="Wallets" sheetId="11" r:id="rId5"/>
-    <sheet name="MTO Partners" sheetId="5" r:id="rId6"/>
-    <sheet name="MTO Countries" sheetId="6" r:id="rId7"/>
-    <sheet name="MTO Cities" sheetId="7" r:id="rId8"/>
-    <sheet name="MTO Products" sheetId="8" r:id="rId9"/>
-    <sheet name="MTO Banks" sheetId="9" r:id="rId10"/>
-    <sheet name="MTO Wallets" sheetId="10" r:id="rId11"/>
+    <sheet name="Api Detail" sheetId="12" r:id="rId1"/>
+    <sheet name="Products" sheetId="3" r:id="rId2"/>
+    <sheet name="Countries" sheetId="1" r:id="rId3"/>
+    <sheet name="Cities" sheetId="2" r:id="rId4"/>
+    <sheet name="Banks" sheetId="4" r:id="rId5"/>
+    <sheet name="Wallets" sheetId="11" r:id="rId6"/>
+    <sheet name="MTO Partners" sheetId="5" r:id="rId7"/>
+    <sheet name="MTO Countries" sheetId="6" r:id="rId8"/>
+    <sheet name="MTO Cities" sheetId="7" r:id="rId9"/>
+    <sheet name="MTO Products" sheetId="8" r:id="rId10"/>
+    <sheet name="MTO Banks" sheetId="9" r:id="rId11"/>
+    <sheet name="MTO Wallets" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,8 +35,92 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nabeel Ahmed Jamil</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{110C0565-BFE4-4B1C-822A-36FEABB4B4CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nabeel Ahmed Jamil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+api use in city configure
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A9C73575-6580-44E5-95D8-92B5CF5D9DDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nabeel Ahmed Jamil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+api use in bank configure
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{B70927CF-71BF-4C11-AC89-A6A56CB85862}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nabeel Ahmed Jamil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+api use in wallets configure</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -153,9 +239,6 @@
     <t>Realtime</t>
   </si>
   <si>
-    <t>Moneygram Reference number</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -283,13 +366,76 @@
   </si>
   <si>
     <t>if delete wallet then delete the wallet from partenr_wallet too</t>
+  </si>
+  <si>
+    <t>enable/disable for all data country should send the country code</t>
+  </si>
+  <si>
+    <t>Test Done</t>
+  </si>
+  <si>
+    <t>Api Detail for MTO Partners</t>
+  </si>
+  <si>
+    <t>Fetch All MTO Partners</t>
+  </si>
+  <si>
+    <t>Enable/Disable Mto Partners</t>
+  </si>
+  <si>
+    <t>Edit Mto Partner</t>
+  </si>
+  <si>
+    <t>Delete Mto Partner</t>
+  </si>
+  <si>
+    <t>Change Perferece Order</t>
+  </si>
+  <si>
+    <t>Fetch All City By Country Code</t>
+  </si>
+  <si>
+    <t>Fetch All Bank By Country Code</t>
+  </si>
+  <si>
+    <t>Fetch All Wallets By Country Code</t>
+  </si>
+  <si>
+    <t>Api Detail</t>
+  </si>
+  <si>
+    <t>Api Type</t>
+  </si>
+  <si>
+    <t>Api Comment</t>
+  </si>
+  <si>
+    <t>Api Status</t>
+  </si>
+  <si>
+    <t>if partner detai it will auto delete the (ref table detail)</t>
+  </si>
+  <si>
+    <t>Not Realtie</t>
+  </si>
+  <si>
+    <t>Preferential MTOs without opt out</t>
+  </si>
+  <si>
+    <t>15975365482</t>
+  </si>
+  <si>
+    <t>15975365483</t>
+  </si>
+  <si>
+    <t>15975365484</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +450,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +489,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -342,6 +522,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,21 +806,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -646,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -657,191 +1317,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -850,42 +1345,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -893,115 +1385,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1010,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1021,7 +1422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1029,10 +1430,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1040,7 +1441,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1048,24 +1449,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1074,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1085,7 +1486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1096,7 +1497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1107,7 +1508,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1118,40 +1519,40 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1168,23 +1569,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1193,7 +1594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1204,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1215,7 +1616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1231,28 +1632,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1306,11 +1707,11 @@
       <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1320,8 +1721,23 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="F3">
+        <v>3.94</v>
+      </c>
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1331,9 +1747,27 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4" s="3">
+        <v>2.02</v>
+      </c>
+      <c r="F4">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="J4" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,21 +1775,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1363,7 +1797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1371,7 +1805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1379,15 +1813,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1395,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1403,15 +1837,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1419,7 +1853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1432,21 +1866,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1454,7 +1888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1462,89 +1896,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C933CE56-EA37-41C0-B6CD-9809BC6498F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E395E-6BAA-402B-B341-D14B3A683C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -479,7 +479,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -511,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -527,6 +533,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,19 +843,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>83</v>
@@ -856,14 +857,22 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -917,7 +926,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -966,9 +975,12 @@
       <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1017,9 +1029,12 @@
       <c r="C25" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1068,9 +1083,12 @@
       <c r="C32" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="D32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>84</v>
       </c>
     </row>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E395E-6BAA-402B-B341-D14B3A683C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5F7A3-CB03-407B-B249-3333ABFE4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>Nabeel Ahmed Jamil</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{110C0565-BFE4-4B1C-822A-36FEABB4B4CA}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{110C0565-BFE4-4B1C-822A-36FEABB4B4CA}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{A9C73575-6580-44E5-95D8-92B5CF5D9DDC}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{A9C73575-6580-44E5-95D8-92B5CF5D9DDC}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{B70927CF-71BF-4C11-AC89-A6A56CB85862}">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{B70927CF-71BF-4C11-AC89-A6A56CB85862}">
       <text>
         <r>
           <rPr>
@@ -115,12 +115,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{4A756318-A337-43D3-AB49-5EB37DC950E6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nabeel Ahmed Jamil:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+this api user when user click on the add button to like the new country with partner</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -290,15 +314,6 @@
     <t>Api Detail for Country</t>
   </si>
   <si>
-    <t>Fetch All Country City</t>
-  </si>
-  <si>
-    <t>Fetch All Country Bank</t>
-  </si>
-  <si>
-    <t>Fetch All Country Wallets</t>
-  </si>
-  <si>
     <t>Api Detail for City</t>
   </si>
   <si>
@@ -413,9 +428,6 @@
     <t>Api Status</t>
   </si>
   <si>
-    <t>if partner detai it will auto delete the (ref table detail)</t>
-  </si>
-  <si>
     <t>Not Realtie</t>
   </si>
   <si>
@@ -429,13 +441,76 @@
   </si>
   <si>
     <t>15975365484</t>
+  </si>
+  <si>
+    <t>if partner detai it will auto delete the (partner_country, partner_city, partner_wallet, partner_bank)</t>
+  </si>
+  <si>
+    <t>Api Detail for MTO Countries</t>
+  </si>
+  <si>
+    <t>Fetch All Link Country with Mito Partner</t>
+  </si>
+  <si>
+    <t>Note :- we check if mto countrie like with the same mto partner then send error msg</t>
+  </si>
+  <si>
+    <t>Delete Mto Country</t>
+  </si>
+  <si>
+    <t>Add Mto Countrie</t>
+  </si>
+  <si>
+    <t>delete only from partner_country table</t>
+  </si>
+  <si>
+    <t>Api Detail for Mto City</t>
+  </si>
+  <si>
+    <t>Api Detail for Mto Wallet</t>
+  </si>
+  <si>
+    <t>Api Detail for Mto Bank</t>
+  </si>
+  <si>
+    <t>Api Detail for Mto Product</t>
+  </si>
+  <si>
+    <t>Find By City Id</t>
+  </si>
+  <si>
+    <t>Find By Bank Id</t>
+  </si>
+  <si>
+    <t>api call to fetch the single result of bank, call when edit button click</t>
+  </si>
+  <si>
+    <t>api call to fetch the single result of city, call when edit button click</t>
+  </si>
+  <si>
+    <t>Find Product By Id</t>
+  </si>
+  <si>
+    <t>api call to fetch the single reuslt of product, call when edit button click</t>
+  </si>
+  <si>
+    <t>Find By Wallet Id</t>
+  </si>
+  <si>
+    <t>api call to fetch the single result of wallet, call when edit button click</t>
+  </si>
+  <si>
+    <t>Find By MTO Partner Id</t>
+  </si>
+  <si>
+    <t>api call to fetch the single reuslt of mto partner, call when edit button click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +552,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -814,32 +902,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -852,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -860,264 +948,373 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="A14" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>83</v>
+      <c r="A22" s="9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>76</v>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
+      <c r="A30" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>89</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="C43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>89</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1726,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1746,13 +1943,13 @@
         <v>3.94</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1775,10 +1972,10 @@
         <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
         <v>49</v>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Back-Up\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5F7A3-CB03-407B-B249-3333ABFE4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="772"/>
   </bookViews>
   <sheets>
     <sheet name="Api Detail" sheetId="12" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <sheet name="MTO Banks" sheetId="9" r:id="rId11"/>
     <sheet name="MTO Wallets" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nabeel Ahmed Jamil</author>
   </authors>
   <commentList>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{110C0565-BFE4-4B1C-822A-36FEABB4B4CA}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{A9C73575-6580-44E5-95D8-92B5CF5D9DDC}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{B70927CF-71BF-4C11-AC89-A6A56CB85862}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{4A756318-A337-43D3-AB49-5EB37DC950E6}">
+    <comment ref="C51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="120">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -509,7 +508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,22 +900,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>90</v>
       </c>
@@ -930,12 +929,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>50</v>
       </c>
@@ -943,7 +942,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -951,7 +950,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>114</v>
       </c>
@@ -962,7 +961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>52</v>
       </c>
@@ -970,12 +969,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>54</v>
       </c>
@@ -983,7 +982,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -991,7 +990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>87</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>88</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
@@ -1024,14 +1023,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>65</v>
@@ -1040,280 +1039,313 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>112</v>
       </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="D34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="D35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>75</v>
       </c>
-      <c r="D33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>116</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C37" t="s">
         <v>117</v>
       </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-      <c r="D35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="D39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1325,22 +1357,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1354,7 +1386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1368,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1382,7 +1414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1402,20 +1434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +1455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1431,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1445,20 +1477,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1498,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1474,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1482,7 +1514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1496,21 +1528,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1532,7 +1564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1543,7 +1575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1561,19 +1593,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1601,21 +1633,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1626,7 +1658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1637,7 +1669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1648,7 +1680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1665,21 +1697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1690,7 +1722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1701,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1712,7 +1744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1723,7 +1755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1734,7 +1766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1745,7 +1777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1756,7 +1788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1767,7 +1799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1785,20 +1817,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1809,7 +1841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1820,7 +1852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1831,7 +1863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1848,27 +1880,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1897,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1926,7 +1958,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1952,7 +1984,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1981,7 +2013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -1991,20 +2023,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2012,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2020,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2028,7 +2060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2036,7 +2068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2044,7 +2076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2052,7 +2084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2060,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2068,7 +2100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2082,20 +2114,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2103,7 +2135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2111,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2129,7 +2161,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD31FA1D-7FD0-460D-846D-D6A06D9B76CD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B61E16E6-3897-489C-8920-7B64DEB0440B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5F7A3-CB03-407B-B249-3333ABFE4032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0912C9-D01F-41BC-9F6C-96BA66BD7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -504,6 +504,24 @@
   </si>
   <si>
     <t>api call to fetch the single reuslt of mto partner, call when edit button click</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PROD NAME</t>
+  </si>
+  <si>
+    <t>SETTING</t>
+  </si>
+  <si>
+    <t>TOGGGLE FOR ALL</t>
+  </si>
+  <si>
+    <t>TOGGLE ,  EDIT</t>
+  </si>
+  <si>
+    <t>TOGGLE, 3</t>
   </si>
 </sst>
 </file>
@@ -904,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1497,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G50"/>
+      <selection activeCell="A7" sqref="A7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,6 +1572,32 @@
         <v>44</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1562,15 +1606,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1593,6 +1639,32 @@
       </c>
       <c r="C2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0912C9-D01F-41BC-9F6C-96BA66BD7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AF801-0947-4353-8FF7-C89B8BCAA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{4A756318-A337-43D3-AB49-5EB37DC950E6}">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{4A756318-A337-43D3-AB49-5EB37DC950E6}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="126">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -443,9 +443,6 @@
     <t>15975365484</t>
   </si>
   <si>
-    <t>if partner detai it will auto delete the (partner_country, partner_city, partner_wallet, partner_bank)</t>
-  </si>
-  <si>
     <t>Api Detail for MTO Countries</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>TOGGLE, 3</t>
+  </si>
+  <si>
+    <t>if partner detai it will auto delete the (partner_country, partner_city, partner_wallet, partner_bank,partner_country_product)</t>
   </si>
 </sst>
 </file>
@@ -920,17 +920,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -971,10 +971,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>65</v>
@@ -1060,10 +1060,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -1071,7 +1071,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -1079,10 +1082,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -1090,7 +1090,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>63</v>
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -1098,37 +1101,34 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>79</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -1136,7 +1136,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>88</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -1144,10 +1147,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" t="s">
-        <v>112</v>
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -1155,7 +1158,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -1163,45 +1166,45 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -1209,10 +1212,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" t="s">
-        <v>117</v>
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -1220,7 +1223,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -1228,111 +1234,153 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>81</v>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
+      <c r="A41" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>100</v>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
+      <c r="A49" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1574,28 +1622,28 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>121</v>
-      </c>
-      <c r="C8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1643,28 +1691,28 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AF801-0947-4353-8FF7-C89B8BCAA57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEF2C4-28C2-4065-B62D-AD06FB6EA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{4A756318-A337-43D3-AB49-5EB37DC950E6}">
+    <comment ref="C46" authorId="0" shapeId="0" xr:uid="{4A756318-A337-43D3-AB49-5EB37DC950E6}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -449,18 +449,12 @@
     <t>Fetch All Link Country with Mito Partner</t>
   </si>
   <si>
-    <t>Note :- we check if mto countrie like with the same mto partner then send error msg</t>
-  </si>
-  <si>
     <t>Delete Mto Country</t>
   </si>
   <si>
     <t>Add Mto Countrie</t>
   </si>
   <si>
-    <t>delete only from partner_country table</t>
-  </si>
-  <si>
     <t>Api Detail for Mto City</t>
   </si>
   <si>
@@ -470,9 +464,6 @@
     <t>Api Detail for Mto Bank</t>
   </si>
   <si>
-    <t>Api Detail for Mto Product</t>
-  </si>
-  <si>
     <t>Find By City Id</t>
   </si>
   <si>
@@ -522,6 +513,48 @@
   </si>
   <si>
     <t>if partner detai it will auto delete the (partner_country, partner_city, partner_wallet, partner_bank,partner_country_product)</t>
+  </si>
+  <si>
+    <t>delete only from partner_country table with partenr id and country id</t>
+  </si>
+  <si>
+    <t>Add Mto City</t>
+  </si>
+  <si>
+    <t>Delete Mto City</t>
+  </si>
+  <si>
+    <t>Note :- we check if mto city link with the same mto partner then send error msg</t>
+  </si>
+  <si>
+    <t>Note :- we check if mto countrie link with the same mto partner then send error msg</t>
+  </si>
+  <si>
+    <t>Note :- we check if mto wallet link with the same mto partner then send error msg</t>
+  </si>
+  <si>
+    <t>Note :- we check if mto bank like with the same mto partner then send error msg</t>
+  </si>
+  <si>
+    <t>delete only from partner_cityt able with partenr id and city id</t>
+  </si>
+  <si>
+    <t>Add Mto Wallet</t>
+  </si>
+  <si>
+    <t>Delete Mto Wallet</t>
+  </si>
+  <si>
+    <t>delete only from partner_wallet table with partenr id and city id</t>
+  </si>
+  <si>
+    <t>Add Mto Bank</t>
+  </si>
+  <si>
+    <t>Delete Mto Bank</t>
+  </si>
+  <si>
+    <t>delete only from partner_bank table with partenr id and bank id</t>
   </si>
 </sst>
 </file>
@@ -920,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,10 +1004,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>80</v>
@@ -1042,14 +1075,25 @@
         <v>80</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>56</v>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>65</v>
@@ -1060,10 +1104,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>80</v>
@@ -1071,10 +1115,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>80</v>
@@ -1082,7 +1123,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>106</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
       </c>
       <c r="D18" t="s">
         <v>80</v>
@@ -1090,10 +1134,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
@@ -1101,34 +1142,48 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="A21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>72</v>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
@@ -1136,10 +1191,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
         <v>80</v>
@@ -1147,10 +1199,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>79</v>
+        <v>107</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
       </c>
       <c r="D26" t="s">
         <v>80</v>
@@ -1158,7 +1210,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
         <v>80</v>
@@ -1166,45 +1218,56 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>80</v>
+      <c r="A29" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>73</v>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
         <v>80</v>
@@ -1212,10 +1275,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>65</v>
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>113</v>
       </c>
       <c r="D34" t="s">
         <v>80</v>
@@ -1223,10 +1286,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>80</v>
@@ -1234,26 +1294,23 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D36" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
+      <c r="A37" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
         <v>80</v>
@@ -1261,23 +1318,37 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>81</v>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="D42" t="s">
         <v>80</v>
@@ -1285,26 +1356,20 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" t="s">
-        <v>80</v>
+      <c r="A44" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>80</v>
@@ -1312,10 +1377,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>125</v>
+        <v>54</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>80</v>
@@ -1323,65 +1388,109 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
       </c>
       <c r="D47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>108</v>
-      </c>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1622,28 +1731,28 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1691,28 +1800,28 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFEF2C4-28C2-4065-B62D-AD06FB6EA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CD58B5-EC25-4B1F-B855-4CF1213BBA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -555,6 +555,15 @@
   </si>
   <si>
     <t>delete only from partner_bank table with partenr id and bank id</t>
+  </si>
+  <si>
+    <t>Done in city contrller</t>
+  </si>
+  <si>
+    <t>Fetch All Link Wallet with Mito Partner</t>
+  </si>
+  <si>
+    <t>Fetch All Link Bank with Mito Partner</t>
   </si>
 </sst>
 </file>
@@ -953,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,64 +1424,58 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>130</v>
+        <v>87</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="D51" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>104</v>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
+      <c r="A54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>105</v>
+      <c r="B55" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" t="s">
-        <v>129</v>
+        <v>89</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>80</v>
@@ -1480,17 +1483,71 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
+      <c r="D63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/extra deatil/IMT Hub Initial Data Upload.xlsx
+++ b/extra deatil/IMT Hub Initial Data Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabeel.jamil\Downloads\imrh\extra deatil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CD58B5-EC25-4B1F-B855-4CF1213BBA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9518C4E1-AD6B-4860-B90D-80A857D36871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="141">
   <si>
     <t>ISO 2 Char</t>
   </si>
@@ -564,6 +564,9 @@
   </si>
   <si>
     <t>Fetch All Link Bank with Mito Partner</t>
+  </si>
+  <si>
+    <t>Api Detail for MTO Product</t>
   </si>
 </sst>
 </file>
@@ -964,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F940D0E-E75E-4A56-AAF4-E27BEE2B7AF5}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,6 +1547,14 @@
       </c>
       <c r="D63" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
